--- a/3-BIP/CH/snb-data-gdpap-de-selection-20240221_0900.xlsx
+++ b/3-BIP/CH/snb-data-gdpap-de-selection-20240221_0900.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lfi/fleet/bina24_cifci_fischer/3-BIP/CH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a608575b14b7933/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FEAB4-F915-CD44-9916-EE69AC3E6F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57952B2C-169E-47AF-9847-87944631DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>2000-Q1</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>2023-Q4</t>
   </si>
 </sst>
 </file>
@@ -685,15 +688,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -701,764 +704,772 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>115795.80117677301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115837.708813598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>116720.114721937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>116736.145268033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>118678.792430097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>118613.315325406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>120373.81752552099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120404.61963903801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>120683.160391308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120705.24791376101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>121042.8094177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>121069.441937553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>121343.372500727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>121312.223419488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>120750.96171728001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120741.042309639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>120529.505895803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120524.36232613301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>120363.23611328899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120404.112673683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>120838.797519525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120785.99030422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>120693.56582587901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120694.125859055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>120632.343244485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120649.80827095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>121015.72910518901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>121030.714194457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>122242.56147758701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122191.498023861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>123855.986252612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>123837.389456875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>124260.525915149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>124278.087223676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>125647.054466152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>125689.22202307099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>125180.448655197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>125142.316639702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>126458.186395132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>126464.81040734801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>127502.254296996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>127519.097962438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>128955.95619844701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129012.814206134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>130987.810822329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130973.102169317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>133104.31101494801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133086.45959238001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>135529.561933786</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135543.790517891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>137391.54772305099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137437.119340384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>139264.80773225299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>139242.811002211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>141630.69963935399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141633.10661166799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>143826.64934576899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143815.50644044799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>146768.617116362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146819.035962769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>148487.153664991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>148497.56587591101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>150107.588582472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>150055.55479552201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>152453.17944331799</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152416.60171940099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>154149.06513697101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154206.77175458201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>155337.208375063</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155340.81294852201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>152089.06024331399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152051.82198452001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>149297.81286081101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149274.16618833601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>149415.387040345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149441.35338963801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>151347.623610215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151371.38343720799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>152449.01993940701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152454.827307917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>154200.358906885</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154177.94610680101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>155603.58843736901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155641.68384518099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>156286.312069671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156296.43175371099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>157698.71014725199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157713.30480407699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>158427.22465444799</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158430.870416722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>159390.96240664399</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159409.01518634299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>158771.72386395501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158795.97485977999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>158966.40197472001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158962.06714328501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>160050.84401877</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160044.728712732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>160531.16265557401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160544.97050685799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>161250.02612165801</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>161264.30840932601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>161782.37300452701</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>161765.58960061701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>162208.353589771</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162183.341506094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>163478.00167484401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163507.24131768799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>164343.93084461501</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>164330.567793845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>164745.788404758</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>164758.19815520599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>165332.93313312699</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165318.39588678299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>166275.75044837501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166256.98057073899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>166901.27178614301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166883.414009211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>167293.496756184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167316.502064261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>166501.526449767</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166485.36975072799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>166509.315757765</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166494.29588565399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>167153.194655778</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167146.29710844299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>167617.37581286501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167670.55092405199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>168323.99863371899</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168327.747831277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>169392.773215806</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169395.536830992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>170193.57876289199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>170194.132487291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>169622.32571324799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169649.990404385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>169581.14750573799</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169596.96266890201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>169753.28589183299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169725.30889344099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>171811.967833256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171807.422719244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>173566.932868234</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173623.80196473299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>175195.724281406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175181.70304521601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>178131.60425427399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178109.29325615999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>177886.52422871301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177893.00252244901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>178523.11669384001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178553.21379894999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>178485.57489104499</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178528.352094356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>179086.72669770301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179013.414569744</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>179436.56905743</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179415.11372104901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>180298.962823849</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180335.039115577</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>177081.63752933699</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177103.380265477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>164623.55118092199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>164539.09214763399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>176467.90471911</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>176508.11720215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>177579.155650923</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177648.795531146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>178761.777142721</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178768.11744090699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>184910.55451269401</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>184833.60925842801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>188902.68728621799</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>188903.81931084601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>189800.81673704399</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>189940.58844841199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>191993.86152105901</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>192059.051528663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>195849.45994850001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>195716.154537202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>196700.65645773799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>196577.49349548999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>197095.255761526</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>197313.74354262001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>198376.059518586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>198485.98861349799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>198036.90810368501</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>198039.74395045399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>199084.95996185701</v>
+        <v>198981.63644523401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>199783.154902551</v>
       </c>
     </row>
   </sheetData>
